--- a/data/ListaVariáveis.xlsx
+++ b/data/ListaVariáveis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\47. UMINHO_LCD\Algoritmia e Programação\2. Projeto Grupo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes\OneDrive\Desktop\AlgoritmiaEprogramacao\groupProject\Jukebotify-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD850F1-EB12-4FC3-925A-E535A497FEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A9072-BDAC-47A9-AF85-C2663AE40417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>1. Gestão de músicas</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>2.4 Visualizar a playlist gerada com as informações mais importantes.</t>
+  </si>
+  <si>
+    <t>está na Lista Variáveis 1</t>
+  </si>
+  <si>
+    <t>playlistAddMusic</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -245,13 +257,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -267,11 +278,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,141 +598,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="29.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -734,11 +748,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -748,11 +762,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -762,11 +776,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -776,307 +790,317 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
+    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:5" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="4" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="4" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="4" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="4" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="4" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="4" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="4" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5" t="s">
+      <c r="D79" s="7"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="4" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="4" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="4" t="s">
+      <c r="D89" s="7"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="4" t="s">
+      <c r="D93" s="7"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="4" t="s">
+      <c r="D97" s="7"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="4" t="s">
+      <c r="D101" s="7"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="4" t="s">
+      <c r="D105" s="7"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="4" t="s">
+      <c r="D109" s="7"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:E34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
